--- a/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D34654-F0C7-4B6F-8450-1BF663AEE5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7289D98E-07E7-4073-89AB-612016CACB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="328">
   <si>
     <t>備註說明</t>
   </si>
@@ -1337,6 +1337,13 @@
   </si>
   <si>
     <t>CustNo = ,AND FacmNo = ,AND BormNo &gt;= ,AND BormNo &lt;= ,AND IntEndDate = ,AND TitaHCode ^i ,AND AcDate = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
+  </si>
+  <si>
+    <t>borxEntryDateDescRange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate DESC ,TitaKinBr asc ,TitaTlrNo asc ,TitaTxtNo DESC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2075,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -3222,9 +3229,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3373,7 +3380,15 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="C14" s="37"/>
+      <c r="A14" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>327</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3386,8 +3401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7289D98E-07E7-4073-89AB-612016CACB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B8461D-FCA0-4D0E-B083-35AA5D6F0F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1339,11 +1339,11 @@
     <t>CustNo = ,AND FacmNo = ,AND BormNo &gt;= ,AND BormNo &lt;= ,AND IntEndDate = ,AND TitaHCode ^i ,AND AcDate = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
   </si>
   <si>
-    <t>borxEntryDateDescRange</t>
+    <t>IntEndDate DESC ,AcDate asc ,TitaKinBr asc ,TitaTlrNo asc ,TitaTxtNo asc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AcDate DESC ,TitaKinBr asc ,TitaTlrNo asc ,TitaTxtNo DESC</t>
+    <t>borxIntEndDateDescRange</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1351,7 +1351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2083,10 +2083,10 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="4" customWidth="1"/>
@@ -2099,7 +2099,7 @@
     <col min="9" max="16384" width="21.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>46</v>
       </c>
@@ -2116,7 +2116,7 @@
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47"/>
       <c r="B2" s="48"/>
       <c r="C2" s="11" t="s">
@@ -2131,7 +2131,7 @@
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:9" ht="32.4">
+    <row r="3" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="52" t="s">
         <v>47</v>
       </c>
@@ -2148,7 +2148,7 @@
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>48</v>
       </c>
@@ -2161,7 +2161,7 @@
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="52" t="s">
         <v>49</v>
       </c>
@@ -2174,7 +2174,7 @@
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
         <v>50</v>
       </c>
@@ -2187,7 +2187,7 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
         <v>51</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1">
+    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2244,7 +2244,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f>A9+1</f>
         <v>2</v>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" ref="A11:A52" si="0">A10+1</f>
         <v>3</v>
@@ -2288,7 +2288,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2309,7 +2309,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2330,7 +2330,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2351,7 +2351,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1">
+    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2372,7 +2372,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="21.6" customHeight="1">
+    <row r="16" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2393,7 +2393,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="21.6" customHeight="1">
+    <row r="17" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2414,7 +2414,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2435,7 +2435,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="41.25" customHeight="1">
+    <row r="19" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="75.599999999999994" customHeight="1">
+    <row r="20" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="24.75" customHeight="1">
+    <row r="21" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2502,7 +2502,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2523,7 +2523,7 @@
       <c r="G22" s="25"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="162">
+    <row r="23" spans="1:8" ht="162" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2567,7 +2567,7 @@
       <c r="G24" s="25"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2588,7 +2588,7 @@
       <c r="G25" s="19"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="74.400000000000006" customHeight="1">
+    <row r="27" spans="1:8" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2655,7 +2655,7 @@
       <c r="G28" s="25"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2676,7 +2676,7 @@
       <c r="G29" s="25"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="18" customHeight="1">
+    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2724,7 +2724,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1">
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2745,7 +2745,7 @@
       <c r="G32" s="26"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="33" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2766,7 +2766,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2787,7 +2787,7 @@
       <c r="G34" s="26"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1">
+    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2810,7 +2810,7 @@
       <c r="G35" s="20"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="25.5" customHeight="1">
+    <row r="36" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="37" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="38" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="39" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="40" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="21.75" customHeight="1">
+    <row r="43" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3008,7 +3008,7 @@
       <c r="G43" s="25"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" ht="22.2" customHeight="1">
+    <row r="44" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3031,7 +3031,7 @@
       <c r="G44" s="25"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" ht="18" customHeight="1">
+    <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="46" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" ht="21" customHeight="1">
+    <row r="47" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" ht="123" customHeight="1">
+    <row r="48" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1">
+    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3148,7 +3148,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3169,7 +3169,7 @@
       <c r="G50" s="20"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3188,7 +3188,7 @@
       <c r="G51" s="20"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5" customHeight="1">
+    <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3229,12 +3229,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="129.88671875" style="3" customWidth="1"/>
@@ -3242,7 +3242,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>55</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>274</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>112</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>113</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>164</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>146</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>165</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>188</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>195</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>227</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>275</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>312</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>324</v>
       </c>
@@ -3379,15 +3379,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3405,7 +3405,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="30"/>
     <col min="2" max="2" width="29.33203125" style="30" customWidth="1"/>
@@ -3418,7 +3418,7 @@
     <col min="9" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>270</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="2" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:8" s="29" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:8" s="29" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34">
         <f>A2+1</f>
         <v>2</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1">
+    <row r="4" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34">
         <f t="shared" ref="A4:A52" si="0">A3+1</f>
         <v>3</v>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1">
+    <row r="5" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="6" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="7" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" s="33" t="s">
         <v>306</v>
@@ -3556,7 +3556,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="8" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34">
         <f>A6+1</f>
         <v>6</v>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+    <row r="9" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3602,7 +3602,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+    <row r="10" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3626,7 +3626,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+    <row r="11" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3650,7 +3650,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+    <row r="12" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3674,7 +3674,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+    <row r="13" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+    <row r="14" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:8" s="29" customFormat="1" ht="25.5" customHeight="1">
+    <row r="15" spans="1:8" s="29" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="G15" s="33"/>
     </row>
-    <row r="16" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="16" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3760,7 +3760,7 @@
       <c r="F16" s="34"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:9" s="29" customFormat="1" ht="72" customHeight="1">
+    <row r="17" spans="1:9" s="29" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3782,7 +3782,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="29" customFormat="1" ht="96" customHeight="1">
+    <row r="18" spans="1:9" s="29" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3804,7 +3804,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="29" customFormat="1" ht="61.5" customHeight="1">
+    <row r="19" spans="1:9" s="29" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3826,7 +3826,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="29" customFormat="1" ht="228" customHeight="1">
+    <row r="20" spans="1:9" s="29" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3848,7 +3848,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="29" customFormat="1" ht="200.4" customHeight="1">
+    <row r="21" spans="1:9" s="29" customFormat="1" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3870,7 +3870,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="22" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3890,7 +3890,7 @@
       <c r="F22" s="34"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="23" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3910,7 +3910,7 @@
       <c r="F23" s="34"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="24" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="34">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3930,7 +3930,7 @@
       <c r="F24" s="34"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="25" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3950,7 +3950,7 @@
       <c r="F25" s="34"/>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="26" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3970,7 +3970,7 @@
       <c r="F26" s="34"/>
       <c r="G26" s="31"/>
     </row>
-    <row r="27" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="27" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3990,7 +3990,7 @@
       <c r="F27" s="34"/>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="28" spans="1:9" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4010,7 +4010,7 @@
       <c r="F28" s="34"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:9" s="29" customFormat="1" ht="18" customHeight="1">
+    <row r="29" spans="1:9" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4030,7 +4030,7 @@
       <c r="F29" s="34"/>
       <c r="G29" s="35"/>
     </row>
-    <row r="30" spans="1:9" ht="96" customHeight="1">
+    <row r="30" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4052,7 +4052,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="96" customHeight="1">
+    <row r="31" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="42">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4080,7 +4080,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="32.4">
+    <row r="32" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A32" s="34">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4105,7 +4105,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
+    <row r="33" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4125,7 +4125,7 @@
       <c r="F33" s="34"/>
       <c r="G33" s="35"/>
     </row>
-    <row r="34" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
+    <row r="34" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4145,7 +4145,7 @@
       <c r="F34" s="34"/>
       <c r="G34" s="35"/>
     </row>
-    <row r="35" spans="1:8" s="29" customFormat="1" ht="64.8">
+    <row r="35" spans="1:8" s="29" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A35" s="34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4170,7 +4170,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="31.2" customHeight="1">
+    <row r="36" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="34"/>
       <c r="B36" s="31" t="s">
         <v>229</v>
@@ -4181,7 +4181,7 @@
       <c r="F36" s="31"/>
       <c r="G36" s="33"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="G37" s="33"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="G38" s="38"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="34">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="G39" s="33"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4267,7 +4267,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="33"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4287,7 +4287,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="33"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4307,7 +4307,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="33"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4327,7 +4327,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="33"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4347,7 +4347,7 @@
       <c r="F44" s="31"/>
       <c r="G44" s="33"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4367,7 +4367,7 @@
       <c r="F45" s="31"/>
       <c r="G45" s="33"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4387,7 +4387,7 @@
       <c r="F46" s="31"/>
       <c r="G46" s="33"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="F47" s="31"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F48" s="31"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4444,7 +4444,7 @@
       </c>
       <c r="F49" s="31"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="F50" s="31"/>
     </row>
-    <row r="51" spans="1:7" ht="31.2" customHeight="1">
+    <row r="51" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4477,7 +4477,7 @@
       <c r="F51" s="31"/>
       <c r="G51" s="33"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4511,13 +4511,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>206</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>207</v>
       </c>
@@ -4533,17 +4533,17 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>211</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>214</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -4567,12 +4567,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -4580,52 +4580,52 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>220</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>221</v>
       </c>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AF329C-EDF4-4094-B4E4-7E66289B0C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="JsonField" sheetId="3" r:id="rId3"/>
     <sheet name="摘要" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -415,12 +416,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SPACES: 無
-1: 借
-2: 貸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TitaCurCd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -642,14 +637,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0: 正常
-1: 訂正
-2: 被訂正
-3: 沖正
-4: 被沖正</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TitaCalTm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1264,19 +1251,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode.RepayCode
-01 匯款轉帳
-02 銀行扣款
-03 員工扣薪
-04 支票
-05 特約金
-06 人事特約金
-07 定存特約
-08 劃撥存款
-09 其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RepayCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1305,13 +1279,40 @@
   </si>
   <si>
     <t>實收本金含提前償還本金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(空白):無
+1:借
+2:貸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:正常
+1:訂正
+2:被訂正
+3:沖正
+4:被沖正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.RepayCode
+01:匯款轉帳
+02:銀行扣款
+03:員工扣薪
+04:支票
+05:特約金
+06:人事特約金
+07:定存特約
+08:劃撥存款
+09:其他</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1765,6 +1766,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1800,6 +1818,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1975,11 +2010,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2001,10 +2036,10 @@
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="23"/>
@@ -2159,7 +2194,7 @@
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H10" s="5"/>
     </row>
@@ -2196,7 +2231,7 @@
         <v>95</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="14">
         <v>4</v>
@@ -2211,13 +2246,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" s="14">
         <v>8</v>
@@ -2232,7 +2267,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>103</v>
@@ -2253,10 +2288,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>102</v>
@@ -2274,7 +2309,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>96</v>
@@ -2295,7 +2330,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>15</v>
@@ -2322,7 +2357,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" s="14">
         <v>5</v>
@@ -2331,7 +2366,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2343,14 +2378,14 @@
         <v>17</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="26" t="s">
-        <v>107</v>
+        <v>316</v>
       </c>
       <c r="H19" s="5"/>
     </row>
@@ -2360,7 +2395,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>18</v>
@@ -2373,7 +2408,7 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="26" t="s">
-        <v>156</v>
+        <v>317</v>
       </c>
       <c r="H20" s="5"/>
     </row>
@@ -2383,13 +2418,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="14">
         <v>3</v>
@@ -2404,7 +2439,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>19</v>
@@ -2425,10 +2460,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>97</v>
@@ -2438,7 +2473,7 @@
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="26" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H23" s="5"/>
     </row>
@@ -2448,13 +2483,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E24" s="14">
         <v>15</v>
@@ -2469,13 +2504,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="14">
         <v>8</v>
@@ -2490,7 +2525,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>44</v>
@@ -2503,7 +2538,7 @@
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H26" s="5"/>
     </row>
@@ -2513,10 +2548,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>101</v>
@@ -2526,7 +2561,7 @@
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H27" s="5"/>
     </row>
@@ -2542,7 +2577,7 @@
         <v>20</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E28" s="14">
         <v>8</v>
@@ -2557,13 +2592,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" s="14">
         <v>8</v>
@@ -2578,10 +2613,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>97</v>
@@ -2593,7 +2628,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H30" s="5"/>
     </row>
@@ -2603,7 +2638,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>26</v>
@@ -2632,7 +2667,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E32" s="4">
         <v>8</v>
@@ -2653,7 +2688,7 @@
         <v>33</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E33" s="14">
         <v>8</v>
@@ -2671,7 +2706,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>97</v>
@@ -2689,10 +2724,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>134</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>97</v>
@@ -2715,7 +2750,7 @@
         <v>67</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>97</v>
@@ -2727,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H36" s="5"/>
     </row>
@@ -2740,7 +2775,7 @@
         <v>68</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>97</v>
@@ -2752,7 +2787,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H37" s="5"/>
     </row>
@@ -2762,10 +2797,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>97</v>
@@ -2777,7 +2812,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H38" s="5"/>
     </row>
@@ -2790,7 +2825,7 @@
         <v>69</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>97</v>
@@ -2802,7 +2837,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H39" s="5"/>
     </row>
@@ -2812,10 +2847,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>97</v>
@@ -2827,7 +2862,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H40" s="5"/>
     </row>
@@ -2840,7 +2875,7 @@
         <v>70</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>97</v>
@@ -2852,7 +2887,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H41" s="5"/>
     </row>
@@ -2862,10 +2897,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>97</v>
@@ -2877,7 +2912,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H42" s="5"/>
     </row>
@@ -2890,7 +2925,7 @@
         <v>71</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>97</v>
@@ -2913,7 +2948,7 @@
         <v>72</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>97</v>
@@ -2933,10 +2968,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>97</v>
@@ -2948,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H45" s="5"/>
     </row>
@@ -2958,10 +2993,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>97</v>
@@ -2973,7 +3008,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H46" s="5"/>
     </row>
@@ -2983,10 +3018,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>97</v>
@@ -2998,7 +3033,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H47" s="5"/>
     </row>
@@ -3008,10 +3043,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>101</v>
@@ -3021,7 +3056,7 @@
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H48" s="5"/>
     </row>
@@ -3056,7 +3091,7 @@
         <v>13</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E50" s="14">
         <v>6</v>
@@ -3122,7 +3157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3151,139 +3186,139 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3294,10 +3329,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -3316,10 +3351,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3434,10 +3469,10 @@
     <row r="7" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" s="33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>97</v>
@@ -3449,7 +3484,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3480,10 +3515,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>97</v>
@@ -3502,10 +3537,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>97</v>
@@ -3524,10 +3559,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>97</v>
@@ -3549,7 +3584,7 @@
         <v>75</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>97</v>
@@ -3568,10 +3603,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>97</v>
@@ -3590,10 +3625,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D14" s="34" t="s">
         <v>97</v>
@@ -3612,7 +3647,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>29</v>
@@ -3667,7 +3702,7 @@
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="29" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
@@ -3689,7 +3724,7 @@
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="29" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3698,20 +3733,20 @@
         <v>17</v>
       </c>
       <c r="B19" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="D19" s="34" t="s">
         <v>118</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>119</v>
       </c>
       <c r="E19" s="34">
         <v>1</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="29" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.3">
@@ -3720,20 +3755,20 @@
         <v>18</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="34">
         <v>1</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="29" customFormat="1" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3742,20 +3777,20 @@
         <v>19</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="34">
         <v>2</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3770,7 +3805,7 @@
         <v>36</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E22" s="34">
         <v>7</v>
@@ -3890,7 +3925,7 @@
         <v>42</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E28" s="34">
         <v>2</v>
@@ -3910,7 +3945,7 @@
         <v>43</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E29" s="34">
         <v>2</v>
@@ -3924,20 +3959,20 @@
         <v>28</v>
       </c>
       <c r="B30" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="32" t="s">
         <v>151</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>152</v>
       </c>
       <c r="E30" s="32">
         <v>1</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -3946,23 +3981,23 @@
         <v>29</v>
       </c>
       <c r="B31" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" s="32" t="s">
         <v>280</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>282</v>
       </c>
       <c r="E31" s="32">
         <v>4</v>
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="H31" s="30" t="s">
         <v>283</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3974,10 +4009,10 @@
         <v>86</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E32" s="34">
         <v>6</v>
@@ -3991,13 +4026,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="D33" s="34" t="s">
         <v>276</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>278</v>
       </c>
       <c r="E33" s="34">
         <v>6</v>
@@ -4011,29 +4046,29 @@
         <v>32</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E34" s="34">
         <v>1</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="35" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="34"/>
       <c r="B35" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C35" s="31"/>
       <c r="D35" s="32"/>
@@ -4047,13 +4082,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E36" s="32">
         <v>16</v>
@@ -4069,13 +4104,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E37" s="32">
         <v>6</v>
@@ -4091,13 +4126,13 @@
         <v>3</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E38" s="32">
         <v>16</v>
@@ -4113,13 +4148,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E39" s="32">
         <v>3</v>
@@ -4133,13 +4168,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E40" s="32">
         <v>3</v>
@@ -4153,13 +4188,13 @@
         <v>6</v>
       </c>
       <c r="B41" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" s="32" t="s">
         <v>233</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>235</v>
       </c>
       <c r="E41" s="32">
         <v>8</v>
@@ -4173,13 +4208,13 @@
         <v>7</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E42" s="32">
         <v>8</v>
@@ -4193,13 +4228,13 @@
         <v>8</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E43" s="32">
         <v>8</v>
@@ -4213,13 +4248,13 @@
         <v>9</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E44" s="32">
         <v>8</v>
@@ -4233,13 +4268,13 @@
         <v>10</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E45" s="32">
         <v>16</v>
@@ -4253,13 +4288,13 @@
         <v>11</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E46" s="32">
         <v>8</v>
@@ -4272,13 +4307,13 @@
         <v>12</v>
       </c>
       <c r="B47" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="D47" s="32" t="s">
         <v>248</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>250</v>
       </c>
       <c r="E47" s="32">
         <v>4</v>
@@ -4291,13 +4326,13 @@
         <v>13</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E48" s="32">
         <v>6</v>
@@ -4310,13 +4345,13 @@
         <v>14</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E49" s="32">
         <v>8</v>
@@ -4329,7 +4364,7 @@
         <v>15</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C50" s="31"/>
       <c r="D50" s="32"/>
@@ -4343,13 +4378,13 @@
         <v>16</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E51" s="32">
         <v>3</v>
@@ -4364,7 +4399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4379,126 +4414,126 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
